--- a/regionseng/10/business sector/by kind of activity_nace rev.2.xlsx
+++ b/regionseng/10/business sector/by kind of activity_nace rev.2.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495DBD48-D082-4F1F-9B21-207525D289F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-60" yWindow="105" windowWidth="14790" windowHeight="13230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,7 +100,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#_);\(#\);\-"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
@@ -333,6 +334,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -368,6 +386,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -543,11 +578,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P89"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -557,7 +592,7 @@
     <col min="15" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -566,7 +601,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -575,7 +610,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="4">
         <v>2006</v>
@@ -622,8 +657,14 @@
       <c r="P5" s="6">
         <v>2020</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q5" s="6">
+        <v>2021</v>
+      </c>
+      <c r="R5" s="6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
@@ -672,8 +713,14 @@
       <c r="P6" s="11">
         <v>88036.9</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q6" s="11">
+        <v>116964.1</v>
+      </c>
+      <c r="R6" s="11">
+        <v>139327.79999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -722,8 +769,14 @@
       <c r="P7" s="12">
         <v>70</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="12">
+        <v>87.2</v>
+      </c>
+      <c r="R7" s="12">
+        <v>87.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -772,8 +825,14 @@
       <c r="P8" s="12">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="12">
+        <v>7.1</v>
+      </c>
+      <c r="R8" s="12">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
@@ -822,8 +881,14 @@
       <c r="P9" s="12">
         <v>3946.9</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="12">
+        <v>4806</v>
+      </c>
+      <c r="R9" s="12">
+        <v>5281.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -872,8 +937,14 @@
       <c r="P10" s="12">
         <v>2530.1</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="12">
+        <v>3751.1</v>
+      </c>
+      <c r="R10" s="12">
+        <v>4419.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -922,8 +993,14 @@
       <c r="P11" s="12">
         <v>179.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="12">
+        <v>278.2</v>
+      </c>
+      <c r="R11" s="12">
+        <v>303.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
@@ -972,8 +1049,14 @@
       <c r="P12" s="12">
         <v>5560.4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="12">
+        <v>5450.3</v>
+      </c>
+      <c r="R12" s="12">
+        <v>7232.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -1022,8 +1105,14 @@
       <c r="P13" s="12">
         <v>33249.4</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="12">
+        <v>42623.3</v>
+      </c>
+      <c r="R13" s="12">
+        <v>54095.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -1072,8 +1161,14 @@
       <c r="P14" s="12">
         <v>3572</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="12">
+        <v>4462.8999999999996</v>
+      </c>
+      <c r="R14" s="12">
+        <v>6149.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -1122,8 +1217,14 @@
       <c r="P15" s="12">
         <v>860.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="12">
+        <v>1115.5</v>
+      </c>
+      <c r="R15" s="12">
+        <v>1592.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -1172,8 +1273,14 @@
       <c r="P16" s="12">
         <v>1820.6</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="12">
+        <v>2414.8000000000002</v>
+      </c>
+      <c r="R16" s="12">
+        <v>3933</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
@@ -1222,8 +1329,14 @@
       <c r="P17" s="12">
         <v>1008.7</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="12">
+        <v>1040</v>
+      </c>
+      <c r="R17" s="12">
+        <v>1277.4000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -1272,8 +1385,14 @@
       <c r="P18" s="12">
         <v>1316.6</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="12">
+        <v>1530.4</v>
+      </c>
+      <c r="R18" s="12">
+        <v>1631.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
@@ -1322,8 +1441,14 @@
       <c r="P19" s="12">
         <v>632.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="12">
+        <v>869.2</v>
+      </c>
+      <c r="R19" s="12">
+        <v>1201.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1372,8 +1497,14 @@
       <c r="P20" s="12">
         <v>394.7</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="12">
+        <v>447.2</v>
+      </c>
+      <c r="R20" s="12">
+        <v>543.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
@@ -1422,8 +1553,14 @@
       <c r="P21" s="12">
         <v>885.4</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="12">
+        <v>1117.4000000000001</v>
+      </c>
+      <c r="R21" s="12">
+        <v>1206.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
@@ -1472,8 +1609,14 @@
       <c r="P22" s="12">
         <v>31919.9</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="12">
+        <v>46843.9</v>
+      </c>
+      <c r="R22" s="12">
+        <v>50231.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
@@ -1522,8 +1665,14 @@
       <c r="P23" s="12">
         <v>82.1</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="Q23" s="12">
+        <v>119.5</v>
+      </c>
+      <c r="R23" s="12">
+        <v>137.69999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
@@ -1532,8 +1681,9 @@
       <c r="N24" s="9"/>
       <c r="O24" s="9"/>
       <c r="P24" s="9"/>
-    </row>
-    <row r="25" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="Q24" s="9"/>
+    </row>
+    <row r="25" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
@@ -1549,8 +1699,9 @@
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
-    </row>
-    <row r="26" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="Q25" s="9"/>
+    </row>
+    <row r="26" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
@@ -1559,8 +1710,9 @@
       <c r="N26" s="9"/>
       <c r="O26" s="9"/>
       <c r="P26" s="9"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="9"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="4">
         <v>2006</v>
@@ -1607,8 +1759,14 @@
       <c r="P27" s="6">
         <v>2020</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="6">
+        <v>2021</v>
+      </c>
+      <c r="R27" s="6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>2</v>
       </c>
@@ -1657,8 +1815,14 @@
       <c r="P28" s="11">
         <v>28464.7</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="11">
+        <v>34882.1</v>
+      </c>
+      <c r="R28" s="11">
+        <v>44408.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1707,8 +1871,14 @@
       <c r="P29" s="12">
         <v>104.1</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="12">
+        <v>115.1</v>
+      </c>
+      <c r="R29" s="12">
+        <v>102.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>9</v>
       </c>
@@ -1757,8 +1927,14 @@
       <c r="P30" s="12">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="12">
+        <v>7</v>
+      </c>
+      <c r="R30" s="12">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>22</v>
       </c>
@@ -1807,8 +1983,14 @@
       <c r="P31" s="12">
         <v>3814.1</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="12">
+        <v>4635.1000000000004</v>
+      </c>
+      <c r="R31" s="12">
+        <v>5003.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>10</v>
       </c>
@@ -1857,8 +2039,14 @@
       <c r="P32" s="12">
         <v>672.8</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="12">
+        <v>1380.3</v>
+      </c>
+      <c r="R32" s="12">
+        <v>1777.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>11</v>
       </c>
@@ -1907,8 +2095,14 @@
       <c r="P33" s="12">
         <v>241</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="12">
+        <v>326.5</v>
+      </c>
+      <c r="R33" s="12">
+        <v>371.9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>0</v>
       </c>
@@ -1957,8 +2151,14 @@
       <c r="P34" s="12">
         <v>6047.8</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="12">
+        <v>5713.3</v>
+      </c>
+      <c r="R34" s="12">
+        <v>7589.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>12</v>
       </c>
@@ -2007,8 +2207,14 @@
       <c r="P35" s="12">
         <v>6587.2</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="12">
+        <v>8584.1</v>
+      </c>
+      <c r="R35" s="12">
+        <v>11282.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>13</v>
       </c>
@@ -2057,8 +2263,14 @@
       <c r="P36" s="12">
         <v>2437.6999999999998</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q36" s="12">
+        <v>3095.9</v>
+      </c>
+      <c r="R36" s="12">
+        <v>4216.6000000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>14</v>
       </c>
@@ -2107,8 +2319,14 @@
       <c r="P37" s="12">
         <v>808.4</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q37" s="12">
+        <v>1115.5</v>
+      </c>
+      <c r="R37" s="12">
+        <v>1592.9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>15</v>
       </c>
@@ -2157,8 +2375,14 @@
       <c r="P38" s="12">
         <v>1732.3</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="12">
+        <v>2338.1999999999998</v>
+      </c>
+      <c r="R38" s="12">
+        <v>3922.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>16</v>
       </c>
@@ -2207,8 +2431,14 @@
       <c r="P39" s="12">
         <v>997.1</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="12">
+        <v>1031.2</v>
+      </c>
+      <c r="R39" s="12">
+        <v>1247.8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>17</v>
       </c>
@@ -2257,8 +2487,14 @@
       <c r="P40" s="12">
         <v>1151.4000000000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="12">
+        <v>1386.3</v>
+      </c>
+      <c r="R40" s="12">
+        <v>1477.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>18</v>
       </c>
@@ -2307,8 +2543,14 @@
       <c r="P41" s="12">
         <v>515.4</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="12">
+        <v>656.6</v>
+      </c>
+      <c r="R41" s="12">
+        <v>893.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2357,8 +2599,14 @@
       <c r="P42" s="12">
         <v>417.9</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="12">
+        <v>470.5</v>
+      </c>
+      <c r="R42" s="12">
+        <v>580.9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>19</v>
       </c>
@@ -2407,8 +2655,14 @@
       <c r="P43" s="12">
         <v>1533.7</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="12">
+        <v>2135.8000000000002</v>
+      </c>
+      <c r="R43" s="12">
+        <v>1984.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>20</v>
       </c>
@@ -2457,8 +2711,14 @@
       <c r="P44" s="12">
         <v>1316.6</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="12">
+        <v>1774.2</v>
+      </c>
+      <c r="R44" s="12">
+        <v>2225.1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>21</v>
       </c>
@@ -2507,8 +2767,14 @@
       <c r="P45" s="12">
         <v>80.099999999999994</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="Q45" s="12">
+        <v>116.4</v>
+      </c>
+      <c r="R45" s="12">
+        <v>136.4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
@@ -2517,8 +2783,9 @@
       <c r="N46" s="9"/>
       <c r="O46" s="9"/>
       <c r="P46" s="9"/>
-    </row>
-    <row r="47" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="Q46" s="9"/>
+    </row>
+    <row r="47" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>6</v>
       </c>
@@ -2534,8 +2801,9 @@
       <c r="N47" s="9"/>
       <c r="O47" s="9"/>
       <c r="P47" s="9"/>
-    </row>
-    <row r="48" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="Q47" s="9"/>
+    </row>
+    <row r="48" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
@@ -2544,8 +2812,9 @@
       <c r="N48" s="9"/>
       <c r="O48" s="9"/>
       <c r="P48" s="9"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="9"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="4">
         <v>2006</v>
@@ -2592,8 +2861,14 @@
       <c r="P49" s="6">
         <v>2020</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="6">
+        <v>2021</v>
+      </c>
+      <c r="R49" s="6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>2</v>
       </c>
@@ -2642,8 +2917,14 @@
       <c r="P50" s="13">
         <v>443272.1</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="13">
+        <v>460576</v>
+      </c>
+      <c r="R50" s="13">
+        <v>484705</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>8</v>
       </c>
@@ -2692,8 +2973,14 @@
       <c r="P51" s="14">
         <v>3308.3</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="14">
+        <v>3318</v>
+      </c>
+      <c r="R51" s="14">
+        <v>3125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>9</v>
       </c>
@@ -2742,8 +3029,14 @@
       <c r="P52" s="14">
         <v>140</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="14">
+        <v>166</v>
+      </c>
+      <c r="R52" s="14">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>22</v>
       </c>
@@ -2792,8 +3085,14 @@
       <c r="P53" s="14">
         <v>36640.400000000001</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="14">
+        <v>37115</v>
+      </c>
+      <c r="R53" s="14">
+        <v>37085</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>10</v>
       </c>
@@ -2842,8 +3141,14 @@
       <c r="P54" s="14">
         <v>11893.2</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="14">
+        <v>11690</v>
+      </c>
+      <c r="R54" s="14">
+        <v>11125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>11</v>
       </c>
@@ -2892,8 +3197,14 @@
       <c r="P55" s="14">
         <v>10932</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="14">
+        <v>10993</v>
+      </c>
+      <c r="R55" s="14">
+        <v>10964</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>0</v>
       </c>
@@ -2942,8 +3253,14 @@
       <c r="P56" s="14">
         <v>38008.5</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="14">
+        <v>35203</v>
+      </c>
+      <c r="R56" s="14">
+        <v>35610</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>12</v>
       </c>
@@ -2992,8 +3309,14 @@
       <c r="P57" s="14">
         <v>136956</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="14">
+        <v>144138</v>
+      </c>
+      <c r="R57" s="14">
+        <v>150900</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>13</v>
       </c>
@@ -3042,8 +3365,14 @@
       <c r="P58" s="14">
         <v>35857.5</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="14">
+        <v>37119</v>
+      </c>
+      <c r="R58" s="14">
+        <v>39931</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>14</v>
       </c>
@@ -3092,8 +3421,14 @@
       <c r="P59" s="14">
         <v>17663.5</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="14">
+        <v>18775</v>
+      </c>
+      <c r="R59" s="14">
+        <v>22121</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>15</v>
       </c>
@@ -3142,8 +3477,14 @@
       <c r="P60" s="14">
         <v>22041.4</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="14">
+        <v>27592</v>
+      </c>
+      <c r="R60" s="14">
+        <v>35668</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>16</v>
       </c>
@@ -3192,8 +3533,14 @@
       <c r="P61" s="14">
         <v>10642.9</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="14">
+        <v>11746</v>
+      </c>
+      <c r="R61" s="14">
+        <v>11809</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>17</v>
       </c>
@@ -3242,8 +3589,14 @@
       <c r="P62" s="14">
         <v>18941.099999999999</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="14">
+        <v>20064</v>
+      </c>
+      <c r="R62" s="14">
+        <v>20185</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>18</v>
       </c>
@@ -3292,8 +3645,14 @@
       <c r="P63" s="14">
         <v>17872.7</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="14">
+        <v>18611</v>
+      </c>
+      <c r="R63" s="14">
+        <v>19764</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>3</v>
       </c>
@@ -3342,8 +3701,14 @@
       <c r="P64" s="14">
         <v>16120.4</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="14">
+        <v>16515</v>
+      </c>
+      <c r="R64" s="14">
+        <v>16872</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>19</v>
       </c>
@@ -3392,8 +3757,14 @@
       <c r="P65" s="14">
         <v>51465.8</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="14">
+        <v>52514</v>
+      </c>
+      <c r="R65" s="14">
+        <v>53689</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>20</v>
       </c>
@@ -3442,8 +3813,14 @@
       <c r="P66" s="14">
         <v>10722.3</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="14">
+        <v>10768</v>
+      </c>
+      <c r="R66" s="14">
+        <v>11486</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>21</v>
       </c>
@@ -3492,8 +3869,14 @@
       <c r="P67" s="14">
         <v>4066.2</v>
       </c>
-    </row>
-    <row r="68" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="Q67" s="14">
+        <v>4250</v>
+      </c>
+      <c r="R67" s="14">
+        <v>4280</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c r="H68" s="8"/>
@@ -3502,8 +3885,9 @@
       <c r="N68" s="10"/>
       <c r="O68" s="10"/>
       <c r="P68" s="9"/>
-    </row>
-    <row r="69" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="Q68" s="9"/>
+    </row>
+    <row r="69" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>7</v>
       </c>
@@ -3519,8 +3903,9 @@
       <c r="N69" s="9"/>
       <c r="O69" s="9"/>
       <c r="P69" s="9"/>
-    </row>
-    <row r="70" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="Q69" s="9"/>
+    </row>
+    <row r="70" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c r="H70" s="8"/>
@@ -3529,8 +3914,9 @@
       <c r="N70" s="9"/>
       <c r="O70" s="9"/>
       <c r="P70" s="9"/>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="9"/>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
       <c r="B71" s="4">
         <v>2006</v>
@@ -3577,8 +3963,14 @@
       <c r="P71" s="6">
         <v>2020</v>
       </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="6">
+        <v>2021</v>
+      </c>
+      <c r="R71" s="6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
         <v>2</v>
       </c>
@@ -3627,8 +4019,14 @@
       <c r="P72" s="11">
         <v>1348.1</v>
       </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="11">
+        <v>1505.8</v>
+      </c>
+      <c r="R72" s="11">
+        <v>1791.2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>8</v>
       </c>
@@ -3677,8 +4075,14 @@
       <c r="P73" s="12">
         <v>651.20000000000005</v>
       </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="12">
+        <v>1124.3</v>
+      </c>
+      <c r="R73" s="12">
+        <v>856.2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>9</v>
       </c>
@@ -3727,8 +4131,14 @@
       <c r="P74" s="12">
         <v>3522.2</v>
       </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="12">
+        <v>3687.4</v>
+      </c>
+      <c r="R74" s="12">
+        <v>5786.4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>22</v>
       </c>
@@ -3777,8 +4187,14 @@
       <c r="P75" s="12">
         <v>1152.7</v>
       </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="12">
+        <v>1336.8</v>
+      </c>
+      <c r="R75" s="12">
+        <v>1539.6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>10</v>
       </c>
@@ -3827,8 +4243,14 @@
       <c r="P76" s="12">
         <v>1407</v>
       </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="12">
+        <v>1528.4</v>
+      </c>
+      <c r="R76" s="12">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>11</v>
       </c>
@@ -3877,8 +4299,14 @@
       <c r="P77" s="12">
         <v>1021.9</v>
       </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="12">
+        <v>1160.0999999999999</v>
+      </c>
+      <c r="R77" s="12">
+        <v>1341.8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>0</v>
       </c>
@@ -3927,8 +4355,14 @@
       <c r="P78" s="12">
         <v>2003.9</v>
       </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q78" s="12">
+        <v>2108.1</v>
+      </c>
+      <c r="R78" s="12">
+        <v>2392.9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>12</v>
       </c>
@@ -3977,8 +4411,14 @@
       <c r="P79" s="12">
         <v>1155.9000000000001</v>
       </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q79" s="12">
+        <v>1303.0999999999999</v>
+      </c>
+      <c r="R79" s="12">
+        <v>1531.2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>13</v>
       </c>
@@ -4027,8 +4467,14 @@
       <c r="P80" s="12">
         <v>1548.7</v>
       </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="12">
+        <v>1652.9</v>
+      </c>
+      <c r="R80" s="12">
+        <v>1798.4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>14</v>
       </c>
@@ -4077,8 +4523,14 @@
       <c r="P81" s="12">
         <v>961.7</v>
       </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="12">
+        <v>1001.6</v>
+      </c>
+      <c r="R81" s="12">
+        <v>1323.1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>15</v>
       </c>
@@ -4127,8 +4579,14 @@
       <c r="P82" s="12">
         <v>2009.7</v>
       </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="12">
+        <v>2162.4</v>
+      </c>
+      <c r="R82" s="12">
+        <v>3240.7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>16</v>
       </c>
@@ -4177,8 +4635,14 @@
       <c r="P83" s="12">
         <v>1523.8</v>
       </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="12">
+        <v>1744.8</v>
+      </c>
+      <c r="R83" s="12">
+        <v>1778.6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>17</v>
       </c>
@@ -4227,8 +4691,14 @@
       <c r="P84" s="12">
         <v>2327.3000000000002</v>
       </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="12">
+        <v>2628.4</v>
+      </c>
+      <c r="R84" s="12">
+        <v>2957.7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>18</v>
       </c>
@@ -4277,8 +4747,14 @@
       <c r="P85" s="12">
         <v>904.2</v>
       </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="12">
+        <v>959.1</v>
+      </c>
+      <c r="R85" s="12">
+        <v>1160.5999999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>3</v>
       </c>
@@ -4327,8 +4803,14 @@
       <c r="P86" s="12">
         <v>1092.8</v>
       </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="12">
+        <v>1150.5</v>
+      </c>
+      <c r="R86" s="12">
+        <v>1308.0999999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>19</v>
       </c>
@@ -4377,8 +4859,14 @@
       <c r="P87" s="12">
         <v>1182.5</v>
       </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="12">
+        <v>1420.4</v>
+      </c>
+      <c r="R87" s="12">
+        <v>1496.3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>20</v>
       </c>
@@ -4427,8 +4915,14 @@
       <c r="P88" s="12">
         <v>1390.9</v>
       </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="12">
+        <v>1850.9</v>
+      </c>
+      <c r="R88" s="12">
+        <v>2736.2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>21</v>
       </c>
@@ -4476,6 +4970,12 @@
       </c>
       <c r="P89" s="12">
         <v>697.1</v>
+      </c>
+      <c r="Q89" s="12">
+        <v>685.3</v>
+      </c>
+      <c r="R89" s="12">
+        <v>843.4</v>
       </c>
     </row>
   </sheetData>
